--- a/ギャラガ・ガントチャート.xlsx
+++ b/ギャラガ・ガントチャート.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Desktop\個人製作\進級制作\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nwuser\Documents\gyaraga\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="50">
   <si>
     <t>作業項目</t>
     <rPh sb="0" eb="4">
@@ -148,19 +148,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>　出現時の移動</t>
-    <rPh sb="1" eb="3">
-      <t>シュツゲン</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ジ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>　プレイヤー追尾移動</t>
     <rPh sb="6" eb="8">
       <t>ツイビ</t>
@@ -329,6 +316,72 @@
     <t>梶谷</t>
     <rPh sb="0" eb="2">
       <t>カジタニ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>　</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>出現時の移動</t>
+    </r>
+    <rPh sb="1" eb="3">
+      <t>シュツゲン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ジ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11／06～11／10</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11／11～11／13</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11／14～11／18</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>11／19～11／21</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮原</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>川口</t>
+    <rPh sb="0" eb="2">
+      <t>カワグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>宮原・川口</t>
+    <rPh sb="0" eb="2">
+      <t>ミヤハラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カワグチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -337,7 +390,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -362,8 +415,16 @@
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -394,28 +455,25 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -446,41 +504,96 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="64"/>
+      </left>
+      <right style="double">
+        <color indexed="64"/>
+      </right>
+      <top style="double">
+        <color indexed="64"/>
+      </top>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="2" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="0" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="56" fontId="0" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -763,10 +876,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U40"/>
+  <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -774,38 +887,46 @@
     <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D1" s="7" t="s">
+      <c r="C1" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-      <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
+      <c r="J1" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>46</v>
+      </c>
       <c r="N1" s="1"/>
       <c r="O1" s="1"/>
       <c r="P1" s="1"/>
@@ -815,545 +936,770 @@
       <c r="T1" s="1"/>
       <c r="U1" s="1"/>
     </row>
-    <row r="2" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="C2" s="8"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="9"/>
-    </row>
-    <row r="3" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="9"/>
-    </row>
-    <row r="4" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B2" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
+    </row>
+    <row r="3" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="13"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+    </row>
+    <row r="4" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
-      <c r="I4" s="9"/>
-    </row>
-    <row r="5" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+    </row>
+    <row r="5" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-    </row>
-    <row r="6" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B5" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C5" s="15"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+    </row>
+    <row r="6" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-    </row>
-    <row r="7" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B6" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C6" s="15"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+    </row>
+    <row r="7" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
-      <c r="E7" s="9"/>
-      <c r="F7" s="9"/>
-      <c r="G7" s="9"/>
-      <c r="H7" s="9"/>
-      <c r="I7" s="9"/>
-    </row>
-    <row r="8" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B7" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C7" s="15"/>
+      <c r="D7" s="4"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="4"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="4"/>
+    </row>
+    <row r="8" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="9"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="9"/>
-      <c r="I8" s="9"/>
-    </row>
-    <row r="9" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B8" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+      <c r="I8" s="6"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="4"/>
+    </row>
+    <row r="9" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A9" s="2"/>
-      <c r="B9" s="6"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="9"/>
-      <c r="E9" s="9"/>
-      <c r="F9" s="9"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-    </row>
-    <row r="10" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C10" s="9"/>
-      <c r="D10" s="9"/>
-      <c r="E10" s="9"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="9"/>
-      <c r="H10" s="9"/>
-      <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B9" s="18"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="4"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="4"/>
+    </row>
+    <row r="10" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="13"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
-      <c r="H11" s="9"/>
-      <c r="I11" s="9"/>
-    </row>
-    <row r="12" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B11" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A12" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>40</v>
-      </c>
-      <c r="C12" s="9"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="9"/>
-      <c r="G12" s="9"/>
-      <c r="H12" s="9"/>
-      <c r="I12" s="9"/>
-    </row>
-    <row r="13" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
+        <v>19</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="15"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="C13" s="15"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="6"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+    </row>
+    <row r="14" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B14" s="18"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="4"/>
+    </row>
+    <row r="15" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="B15" s="18"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="4"/>
+    </row>
+    <row r="16" spans="1:21" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C16" s="15"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="4"/>
+    </row>
+    <row r="17" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="15"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="4"/>
+      <c r="K17" s="4"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="4"/>
+    </row>
+    <row r="18" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="15"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="4"/>
+    </row>
+    <row r="19" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2"/>
+      <c r="B19" s="18"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+    </row>
+    <row r="20" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C20" s="15"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="4"/>
+      <c r="J20" s="4"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+    </row>
+    <row r="21" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C21" s="15"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+    </row>
+    <row r="22" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="15"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="6"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4"/>
+      <c r="M22" s="4"/>
+    </row>
+    <row r="23" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="6"/>
+      <c r="H23" s="6"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="4"/>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4"/>
+      <c r="M23" s="4"/>
+    </row>
+    <row r="24" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="2"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="4"/>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4"/>
+      <c r="M24" s="4"/>
+    </row>
+    <row r="25" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5"/>
+      <c r="J25" s="5"/>
+      <c r="K25" s="5"/>
+      <c r="L25" s="5"/>
+      <c r="M25" s="4"/>
+    </row>
+    <row r="26" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" s="15"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+      <c r="I26" s="6"/>
+      <c r="J26" s="4"/>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4"/>
+      <c r="M26" s="4"/>
+    </row>
+    <row r="27" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C27" s="15"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+      <c r="I27" s="4"/>
+      <c r="J27" s="6"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+    </row>
+    <row r="28" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="15"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+      <c r="K28" s="6"/>
+      <c r="L28" s="6"/>
+      <c r="M28" s="4"/>
+    </row>
+    <row r="29" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="2"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="4"/>
+    </row>
+    <row r="30" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="9"/>
-      <c r="G13" s="9"/>
-      <c r="H13" s="9"/>
-      <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="2"/>
-      <c r="B14" s="6"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9"/>
-      <c r="I14" s="9"/>
-    </row>
-    <row r="15" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" s="6"/>
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9"/>
-      <c r="I15" s="9"/>
-    </row>
-    <row r="16" spans="1:21" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A16" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B16" s="6"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
-      <c r="G16" s="9"/>
-      <c r="H16" s="9"/>
-      <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A17" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" s="6"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="9"/>
-      <c r="G17" s="9"/>
-      <c r="H17" s="9"/>
-      <c r="I17" s="9"/>
-    </row>
-    <row r="18" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
-      <c r="G18" s="9"/>
-      <c r="H18" s="9"/>
-      <c r="I18" s="9"/>
-    </row>
-    <row r="19" spans="1:9" ht="17.399999999999999" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B19" s="6"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="9"/>
-      <c r="I19" s="9"/>
-    </row>
-    <row r="20" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B20" s="6"/>
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="9"/>
-      <c r="I20" s="9"/>
-    </row>
-    <row r="21" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B21" s="6"/>
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="9"/>
-      <c r="I21" s="9"/>
-    </row>
-    <row r="22" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="2"/>
-      <c r="B22" s="6"/>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-    </row>
-    <row r="23" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="3" t="s">
+      <c r="C30" s="13"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4"/>
+      <c r="M30" s="4"/>
+    </row>
+    <row r="31" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C31" s="14"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+    </row>
+    <row r="32" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="14"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="4"/>
+      <c r="K32" s="4"/>
+      <c r="L32" s="4"/>
+      <c r="M32" s="4"/>
+    </row>
+    <row r="33" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="2"/>
+      <c r="B33" s="18"/>
+      <c r="C33" s="15"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="4"/>
+      <c r="K33" s="4"/>
+      <c r="L33" s="4"/>
+      <c r="M33" s="4"/>
+    </row>
+    <row r="34" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="13"/>
+      <c r="D34" s="5"/>
+      <c r="E34" s="5"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="4"/>
+      <c r="K34" s="4"/>
+      <c r="L34" s="4"/>
+      <c r="M34" s="4"/>
+    </row>
+    <row r="35" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" s="16"/>
+      <c r="D35" s="6"/>
+      <c r="E35" s="7"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="4"/>
+      <c r="K35" s="4"/>
+      <c r="L35" s="4"/>
+      <c r="M35" s="4"/>
+    </row>
+    <row r="36" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A36" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B23" s="6"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-    </row>
-    <row r="24" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="6"/>
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
-      <c r="G24" s="9"/>
-      <c r="H24" s="9"/>
-      <c r="I24" s="9"/>
-    </row>
-    <row r="25" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25" s="6"/>
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-      <c r="F25" s="9"/>
-      <c r="G25" s="9"/>
-      <c r="H25" s="9"/>
-      <c r="I25" s="9"/>
-    </row>
-    <row r="26" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="2"/>
-      <c r="B26" s="6"/>
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-      <c r="F26" s="9"/>
-      <c r="G26" s="9"/>
-      <c r="H26" s="9"/>
-      <c r="I26" s="9"/>
-    </row>
-    <row r="27" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A27" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-      <c r="F27" s="9"/>
-      <c r="G27" s="9"/>
-      <c r="H27" s="9"/>
-      <c r="I27" s="9"/>
-    </row>
-    <row r="28" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-      <c r="F28" s="9"/>
-      <c r="G28" s="9"/>
-      <c r="H28" s="9"/>
-      <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
-      <c r="G29" s="9"/>
-      <c r="H29" s="9"/>
-      <c r="I29" s="9"/>
-    </row>
-    <row r="30" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A30" s="2"/>
-      <c r="B30" s="6"/>
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-      <c r="F30" s="9"/>
-      <c r="G30" s="9"/>
-      <c r="H30" s="9"/>
-      <c r="I30" s="9"/>
-    </row>
-    <row r="31" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A31" s="3" t="s">
+      <c r="B36" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C36" s="15"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="4"/>
+      <c r="K36" s="4"/>
+      <c r="L36" s="4"/>
+      <c r="M36" s="4"/>
+    </row>
+    <row r="37" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A37" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="15"/>
+      <c r="D37" s="4"/>
+      <c r="E37" s="6"/>
+      <c r="F37" s="4"/>
+      <c r="G37" s="4"/>
+      <c r="H37" s="4"/>
+      <c r="I37" s="4"/>
+      <c r="J37" s="4"/>
+      <c r="K37" s="4"/>
+      <c r="L37" s="4"/>
+      <c r="M37" s="4"/>
+    </row>
+    <row r="38" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C38" s="15"/>
+      <c r="D38" s="4"/>
+      <c r="E38" s="6"/>
+      <c r="F38" s="4"/>
+      <c r="G38" s="4"/>
+      <c r="H38" s="4"/>
+      <c r="I38" s="4"/>
+      <c r="J38" s="4"/>
+      <c r="K38" s="4"/>
+      <c r="L38" s="4"/>
+      <c r="M38" s="4"/>
+    </row>
+    <row r="39" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A39" s="2"/>
+      <c r="B39" s="18"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="4"/>
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="4"/>
+      <c r="K39" s="4"/>
+      <c r="L39" s="4"/>
+      <c r="M39" s="4"/>
+    </row>
+    <row r="40" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A40" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="B31" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-      <c r="E31" s="9"/>
-      <c r="F31" s="9"/>
-      <c r="G31" s="9"/>
-      <c r="H31" s="9"/>
-      <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A32" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
-      <c r="E32" s="9"/>
-      <c r="F32" s="9"/>
-      <c r="G32" s="9"/>
-      <c r="H32" s="9"/>
-      <c r="I32" s="9"/>
-    </row>
-    <row r="33" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A33" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="9"/>
-      <c r="E33" s="9"/>
-      <c r="F33" s="9"/>
-      <c r="G33" s="9"/>
-      <c r="H33" s="9"/>
-      <c r="I33" s="9"/>
-    </row>
-    <row r="34" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A34" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C34" s="9"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
-      <c r="G34" s="9"/>
-      <c r="H34" s="9"/>
-      <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A35" s="2" t="s">
+      <c r="B40" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C40" s="15"/>
+      <c r="D40" s="4"/>
+      <c r="E40" s="4"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="4"/>
+      <c r="K40" s="4"/>
+      <c r="L40" s="4"/>
+      <c r="M40" s="4"/>
+    </row>
+    <row r="41" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A41" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B35" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="9"/>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
-      <c r="G35" s="9"/>
-      <c r="H35" s="9"/>
-      <c r="I35" s="9"/>
-    </row>
-    <row r="36" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A36" s="2"/>
-      <c r="B36" s="6"/>
-      <c r="C36" s="9"/>
-      <c r="D36" s="9"/>
-      <c r="E36" s="9"/>
-      <c r="F36" s="9"/>
-      <c r="G36" s="9"/>
-      <c r="H36" s="9"/>
-      <c r="I36" s="9"/>
-    </row>
-    <row r="37" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A37" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C37" s="9"/>
-      <c r="D37" s="9"/>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
-      <c r="G37" s="9"/>
-      <c r="H37" s="9"/>
-      <c r="I37" s="9"/>
-    </row>
-    <row r="38" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A38" s="2" t="s">
+      <c r="B41" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="15"/>
+      <c r="D41" s="4"/>
+      <c r="E41" s="4"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="4"/>
+      <c r="K41" s="4"/>
+      <c r="L41" s="4"/>
+      <c r="M41" s="4"/>
+    </row>
+    <row r="42" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A42" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C38" s="9"/>
-      <c r="D38" s="9"/>
-      <c r="E38" s="9"/>
-      <c r="F38" s="9"/>
-      <c r="G38" s="9"/>
-      <c r="H38" s="9"/>
-      <c r="I38" s="9"/>
-    </row>
-    <row r="39" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A39" s="2" t="s">
+      <c r="B42" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C42" s="15"/>
+      <c r="D42" s="4"/>
+      <c r="E42" s="4"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="4"/>
+      <c r="K42" s="4"/>
+      <c r="L42" s="4"/>
+      <c r="M42" s="4"/>
+    </row>
+    <row r="43" spans="1:13" ht="25.05" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="A43" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B39" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C39" s="9"/>
-      <c r="D39" s="9"/>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
-      <c r="G39" s="9"/>
-      <c r="H39" s="9"/>
-      <c r="I39" s="9"/>
-    </row>
-    <row r="40" spans="1:9" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.5">
-      <c r="A40" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>39</v>
-      </c>
-      <c r="C40" s="9"/>
-      <c r="D40" s="9"/>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-      <c r="G40" s="9"/>
-      <c r="H40" s="9"/>
-      <c r="I40" s="9"/>
-    </row>
+      <c r="B43" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C43" s="15"/>
+      <c r="D43" s="4"/>
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="4"/>
+      <c r="K43" s="4"/>
+      <c r="L43" s="4"/>
+      <c r="M43" s="4"/>
+    </row>
+    <row r="44" spans="1:13" ht="18.600000000000001" thickTop="1" x14ac:dyDescent="0.45"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/ギャラガ・ガントチャート.xlsx
+++ b/ギャラガ・ガントチャート.xlsx
@@ -878,8 +878,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="C24" sqref="C24"/>
+    <sheetView tabSelected="1" zoomScale="46" zoomScaleNormal="46" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.69921875" defaultRowHeight="18" x14ac:dyDescent="0.45"/>
